--- a/biology/Zoologie/Atheris_squamigera/Atheris_squamigera.xlsx
+++ b/biology/Zoologie/Atheris_squamigera/Atheris_squamigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atheris squamigera est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atheris squamigera est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] en Afrique Centrale :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre en Afrique Centrale :
 au Kenya ;
 en Ouganda ;
 en République démocratique du Congo ;
@@ -551,14 +565,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vipère peut atteindre 50 à 60 cm, près de 80 cm pour les plus grands spécimens, les femelles étant en général plus grandes que les mâles.
 La tête est plate, et se découpe nettement du corps, les yeux sont à pupille verticale comme chez toutes les vipères.
 La coloration varie dans les divers tons de vert, du vert clair au vert-olive sombre, et quelques individus peuvent également être plutôt jaunes, rougeâtres ou grisâtres.
 Les juvéniles sont plus sombres, le changement de couleur se produisant vers 3 ou 4 mois.
 Elle vit principalement dans les forêts humides ou les taillis.
-Cette espèce est venimeuse et ovovivipare[1].
+Cette espèce est venimeuse et ovovivipare.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Atheris squamigera robusta[2] a été placée en synonymie avec Atheris squamigera. Atheris anisolepis a été relevée sa synonymie avec Atheris squamigera.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Atheris squamigera robusta a été placée en synonymie avec Atheris squamigera. Atheris anisolepis a été relevée sa synonymie avec Atheris squamigera.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hallowell, 1854 : Descriptions of new reptiles from Guinea. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 193-194 (texte intégral).</t>
         </is>
